--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>0.1847851618757491</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.788042322131585</v>
+        <v>-1.793217697002422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04370983812911967</v>
+        <v>0.04303773196432428</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08107997182672015</v>
+        <v>-0.07965705854106434</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2011855124817354</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.834740321422334</v>
+        <v>-1.837114729266816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02272344118481761</v>
+        <v>0.02116988431209383</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06235229232148457</v>
+        <v>-0.06248923198503773</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2362787984028909</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.935874198004146</v>
+        <v>-1.938055788506269</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01952165801177155</v>
+        <v>-0.01835530984288775</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06950148717043229</v>
+        <v>-0.06761738628223538</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2774068717726301</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.976125014974047</v>
+        <v>-1.980926560303575</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0383894252188029</v>
+        <v>-0.03775981757028262</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06441425737038847</v>
+        <v>-0.06311569159531541</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3119613953992597</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.929589926662353</v>
+        <v>-1.937541871263164</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02003951030267948</v>
+        <v>-0.02092883110621437</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08276732032475449</v>
+        <v>-0.0802866661895846</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3294703163076796</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.800119770849326</v>
+        <v>-1.809567033615372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02116988431209383</v>
+        <v>0.02021602872458561</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06974860817247651</v>
+        <v>-0.06910326033274322</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3245758768642342</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.526918058974726</v>
+        <v>-1.538462702219906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648615133671736</v>
+        <v>0.05648300329847476</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06480776215071364</v>
+        <v>-0.06456536320603334</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2968512757392985</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.117682531551275</v>
+        <v>-1.132326418446296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0471868463680729</v>
+        <v>0.04884271448368122</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04922969490720074</v>
+        <v>-0.04934932036041959</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2519701920882932</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6110632281025108</v>
+        <v>-0.6263359356364914</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04024069998577296</v>
+        <v>0.04252932378814416</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02197555382187933</v>
+        <v>-0.02113660163022606</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.202473193593538</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1043644366881212</v>
+        <v>-0.1192389173844127</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05565326694122884</v>
+        <v>-0.0527979962551894</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01646356713940477</v>
+        <v>0.01739538645921478</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1634819013807576</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4826030338361182</v>
+        <v>0.4666503500417358</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2319922031196662</v>
+        <v>-0.2314066680065423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07628888590180131</v>
+        <v>0.07774485358900445</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1527865369599185</v>
       </c>
       <c r="E13" t="n">
-        <v>1.067478632948149</v>
+        <v>1.049144458223239</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5095374207594952</v>
+        <v>-0.5119535401106917</v>
       </c>
       <c r="G13" t="n">
-        <v>0.166754060879437</v>
+        <v>0.1685752010027819</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1836824411040083</v>
       </c>
       <c r="E14" t="n">
-        <v>1.660167662978317</v>
+        <v>1.639751060955925</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8174045427520606</v>
+        <v>-0.821500140505685</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2672693479465776</v>
+        <v>0.2714530907709949</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2656717452861473</v>
       </c>
       <c r="E15" t="n">
-        <v>2.350384491783396</v>
+        <v>2.325869143969138</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.153931404905269</v>
+        <v>-1.158606241695532</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3903340329454719</v>
+        <v>0.3939684430965552</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4004687773378062</v>
       </c>
       <c r="E16" t="n">
-        <v>2.898355638577411</v>
+        <v>2.870792989744315</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.502833205390143</v>
+        <v>-1.507687480360235</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5204881000667045</v>
+        <v>0.5224209955476617</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.582195668765992</v>
       </c>
       <c r="E17" t="n">
-        <v>3.396853790369824</v>
+        <v>3.369207718523299</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.844076615840329</v>
+        <v>-1.84894190894427</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6373779080527362</v>
+        <v>0.6415097082461505</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7982460201622815</v>
       </c>
       <c r="E18" t="n">
-        <v>3.804390951161392</v>
+        <v>3.779530893159568</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.149619698600294</v>
+        <v>-2.157587383392318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.794068363539977</v>
+        <v>0.7968905798244692</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.027162067837581</v>
       </c>
       <c r="E19" t="n">
-        <v>4.148797353035831</v>
+        <v>4.125889078744421</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.501018680421112</v>
+        <v>-2.510451777015067</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9372867893680054</v>
+        <v>0.940373440864876</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.251083508228549</v>
       </c>
       <c r="E20" t="n">
-        <v>4.462521400178757</v>
+        <v>4.438386964991853</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.819330206293068</v>
+        <v>-2.831177061209538</v>
       </c>
       <c r="G20" t="n">
-        <v>1.055262670547735</v>
+        <v>1.060499432164302</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.455803528031979</v>
       </c>
       <c r="E21" t="n">
-        <v>4.672793040574194</v>
+        <v>4.652961973664927</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.089929277550597</v>
+        <v>-3.103234461182952</v>
       </c>
       <c r="G21" t="n">
-        <v>1.161405075973525</v>
+        <v>1.168291409629216</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.632630433236479</v>
       </c>
       <c r="E22" t="n">
-        <v>4.840322191730712</v>
+        <v>4.820659544867423</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.302089740891596</v>
+        <v>-3.318699577669121</v>
       </c>
       <c r="G22" t="n">
-        <v>1.243553133914208</v>
+        <v>1.252375511089098</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.777477950351255</v>
       </c>
       <c r="E23" t="n">
-        <v>4.95133933437517</v>
+        <v>4.932639987214118</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.441931895704434</v>
+        <v>-3.458560620711415</v>
       </c>
       <c r="G23" t="n">
-        <v>1.319181604654463</v>
+        <v>1.328940523206528</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.889797954582539</v>
       </c>
       <c r="E24" t="n">
-        <v>5.021235227475649</v>
+        <v>5.002447735243804</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.556367020870797</v>
+        <v>-3.573757571132488</v>
       </c>
       <c r="G24" t="n">
-        <v>1.379712083983203</v>
+        <v>1.390014039132116</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.972793517529251</v>
       </c>
       <c r="E25" t="n">
-        <v>5.011556583898771</v>
+        <v>4.994848370926164</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.658201335961588</v>
+        <v>-3.675447863473679</v>
       </c>
       <c r="G25" t="n">
-        <v>1.418763498382673</v>
+        <v>1.429156746640621</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.028648791368842</v>
       </c>
       <c r="E26" t="n">
-        <v>4.996628586552355</v>
+        <v>4.981977616571288</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.677950553876547</v>
+        <v>-3.694321139747635</v>
       </c>
       <c r="G26" t="n">
-        <v>1.44227304797842</v>
+        <v>1.453472194026474</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.063535003562949</v>
       </c>
       <c r="E27" t="n">
-        <v>4.950446865533393</v>
+        <v>4.938240347247706</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.637240123323227</v>
+        <v>-3.650714514011121</v>
       </c>
       <c r="G27" t="n">
-        <v>1.438865296580804</v>
+        <v>1.449593810911589</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.082621831455387</v>
       </c>
       <c r="E28" t="n">
-        <v>4.799196220129367</v>
+        <v>4.787298209591455</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.570204222966152</v>
+        <v>-3.58249731230351</v>
       </c>
       <c r="G28" t="n">
-        <v>1.390113202336758</v>
+        <v>1.401628726228193</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.090718999721783</v>
       </c>
       <c r="E29" t="n">
-        <v>4.669045301046377</v>
+        <v>4.65824280781689</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.481911194375911</v>
+        <v>-3.493676987307633</v>
       </c>
       <c r="G29" t="n">
-        <v>1.346952024011572</v>
+        <v>1.357756091260179</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.090101615059992</v>
       </c>
       <c r="E30" t="n">
-        <v>4.512753072396825</v>
+        <v>4.504700390572251</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.349174948886184</v>
+        <v>-3.363733838748655</v>
       </c>
       <c r="G30" t="n">
-        <v>1.294888193536309</v>
+        <v>1.305391623132748</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.079900885012336</v>
       </c>
       <c r="E31" t="n">
-        <v>4.35511348337944</v>
+        <v>4.348467974649308</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.226447890988809</v>
+        <v>-3.241702497302895</v>
       </c>
       <c r="G31" t="n">
-        <v>1.234011430000883</v>
+        <v>1.242171145125706</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.059243832205128</v>
       </c>
       <c r="E32" t="n">
-        <v>4.219943017318622</v>
+        <v>4.212061903578269</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.085893492523582</v>
+        <v>-3.102047650765491</v>
       </c>
       <c r="G32" t="n">
-        <v>1.162999557343403</v>
+        <v>1.171894339397873</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.026804127343944</v>
       </c>
       <c r="E33" t="n">
-        <v>4.014078630462826</v>
+        <v>4.006893233174089</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.958544327476508</v>
+        <v>-2.976694341964226</v>
       </c>
       <c r="G33" t="n">
-        <v>1.094537595662429</v>
+        <v>1.10274295734177</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.982076239630414</v>
       </c>
       <c r="E34" t="n">
-        <v>3.75957705275884</v>
+        <v>3.751758899783339</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.881788859045401</v>
+        <v>-2.899146354905544</v>
       </c>
       <c r="G34" t="n">
-        <v>1.036155652434265</v>
+        <v>1.044083986748257</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.926305417664816</v>
       </c>
       <c r="E35" t="n">
-        <v>3.518424731222604</v>
+        <v>3.510702593413503</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.785779201712983</v>
+        <v>-2.805091629321782</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9371529977426948</v>
+        <v>0.9466034085469841</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.859043517344546</v>
       </c>
       <c r="E36" t="n">
-        <v>3.254878839647623</v>
+        <v>3.24911478162542</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.726733022415631</v>
+        <v>-2.743187031300147</v>
       </c>
       <c r="G36" t="n">
-        <v>0.865961686905386</v>
+        <v>0.8750469252735336</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.781577520771213</v>
       </c>
       <c r="E37" t="n">
-        <v>3.010742177857401</v>
+        <v>3.003449747268415</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.629268184405571</v>
+        <v>-2.645360955901749</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8170616348639375</v>
+        <v>0.824251754210039</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.695709037259026</v>
       </c>
       <c r="E38" t="n">
-        <v>2.717784164981796</v>
+        <v>2.713128216420988</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.546232379680474</v>
+        <v>-2.5599861587624</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7485996731829641</v>
+        <v>0.7565453217072899</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.605034646540477</v>
       </c>
       <c r="E39" t="n">
-        <v>2.460529627834654</v>
+        <v>2.456734667733198</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.427201118679913</v>
+        <v>-2.443162459579463</v>
       </c>
       <c r="G39" t="n">
-        <v>0.679139783379086</v>
+        <v>0.6870602475974711</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.514975821265969</v>
       </c>
       <c r="E40" t="n">
-        <v>2.223998626438557</v>
+        <v>2.220718370589767</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.328507758745678</v>
+        <v>-2.345438695423949</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6305513871236551</v>
+        <v>0.636732560213003</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.428597780779606</v>
       </c>
       <c r="E41" t="n">
-        <v>2.023926629949148</v>
+        <v>2.020276479606852</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.236013673120686</v>
+        <v>-2.251830204261076</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5663943677394391</v>
+        <v>0.5723441600179556</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.349041985721219</v>
       </c>
       <c r="E42" t="n">
-        <v>1.763753861351115</v>
+        <v>1.76293694542716</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.13941375861778</v>
+        <v>-2.154756510002659</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4978851854848266</v>
+        <v>0.5032824970517666</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.275247033170856</v>
       </c>
       <c r="E43" t="n">
-        <v>1.546945319544915</v>
+        <v>1.546065442856108</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.057237368332914</v>
+        <v>-2.072787103232244</v>
       </c>
       <c r="G43" t="n">
-        <v>0.445183877265437</v>
+        <v>0.4503073095052708</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.206603748142571</v>
       </c>
       <c r="E44" t="n">
-        <v>1.310782638623203</v>
+        <v>1.312183515641161</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.968701153788432</v>
+        <v>-1.984227278400942</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4035337572966995</v>
+        <v>0.4064708769770466</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.142293121526111</v>
       </c>
       <c r="E45" t="n">
-        <v>1.101247639176534</v>
+        <v>1.102251863375924</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.892063736791423</v>
+        <v>-1.90678711165207</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3458837329599405</v>
+        <v>0.3482793900625601</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.080337265859827</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8988067439095674</v>
+        <v>0.9008277844613175</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.825624389681321</v>
+        <v>-1.840162817295215</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2757863654119357</v>
+        <v>0.2785141405491498</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.020464324054708</v>
       </c>
       <c r="E47" t="n">
-        <v>0.73597289179189</v>
+        <v>0.7387888119998969</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.781978413466774</v>
+        <v>-1.795013652819826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2403457508767294</v>
+        <v>0.2420771719101601</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9610311726736718</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5769056674314851</v>
+        <v>0.579192717214735</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.713165445521751</v>
+        <v>-1.72700815668403</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1989773803307047</v>
+        <v>0.1995849517115268</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.9025677795486016</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4469892771975689</v>
+        <v>0.4500900948665312</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.665781960903676</v>
+        <v>-1.679333478528514</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1403546121769819</v>
+        <v>0.1426684202852939</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.8446553291089347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3549091586014786</v>
+        <v>0.3551767418520998</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.598741338489237</v>
+        <v>-1.613744101743914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1113265515419546</v>
+        <v>0.1121466155041523</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7881818410471298</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2219250051001475</v>
+        <v>0.2229370993951438</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.55209370781037</v>
+        <v>-1.565521664934186</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07356898086019373</v>
+        <v>0.07463459180531429</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.7343134352736453</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1154662218309754</v>
+        <v>0.1163586906727529</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.503685536744328</v>
+        <v>-1.518593071842167</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04508553084113648</v>
+        <v>0.04549005375531075</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.6831217686342166</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01876006103738247</v>
+        <v>0.02140126512292503</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.492551712489807</v>
+        <v>-1.50503132309304</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006081337015305433</v>
+        <v>0.006374104571867361</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.6355514502620019</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.07539776279882467</v>
+        <v>-0.07200575159242169</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.473857087386119</v>
+        <v>-1.486643631718005</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01571095771910259</v>
+        <v>-0.01510023830003792</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5907523912636458</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1470140587988847</v>
+        <v>-0.1437637093133987</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.459165192907898</v>
+        <v>-1.472495560846194</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04561889504293696</v>
+        <v>-0.04495780701199067</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5495124753943611</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2219845895464364</v>
+        <v>-0.2168438430962684</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.465778434246043</v>
+        <v>-1.478801081446124</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07436363223613011</v>
+        <v>-0.07439668663767743</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.5117455730757356</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2742609126030749</v>
+        <v>-0.2700740217404151</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.46054639468684</v>
+        <v>-1.474086894177829</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1159917159371694</v>
+        <v>-0.1135094877828782</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4776902084464631</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3629883704707946</v>
+        <v>-0.3574635633550292</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.459933314239093</v>
+        <v>-1.473417936051276</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1337922981799589</v>
+        <v>-0.1320356928405873</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.4474693514520339</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4393613522554253</v>
+        <v>-0.4331691610322284</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.48475008671508</v>
+        <v>-1.496737029333346</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1564928019473574</v>
+        <v>-0.1550037798586069</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.4198822786857585</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4996447105821203</v>
+        <v>-0.4958938230160608</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.501020722371966</v>
+        <v>-1.512520506072188</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1933185533093083</v>
+        <v>-0.1905183732925144</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3947710971778008</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5742374767405599</v>
+        <v>-0.5697027276520926</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.532488512645009</v>
+        <v>-1.543221749033158</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2140940316913561</v>
+        <v>-0.2117062446843429</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3705914096285003</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6305668990345477</v>
+        <v>-0.6256024427259653</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.555581734183172</v>
+        <v>-1.567996810002431</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2243818206681774</v>
+        <v>-0.222710212361356</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3471215154667168</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6848249121649037</v>
+        <v>-0.679293808972653</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.602719671818324</v>
+        <v>-1.614458706424985</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2595800362587034</v>
+        <v>-0.2573842795844889</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3228932182881447</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7435106410834785</v>
+        <v>-0.7371484557951812</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.647094418886033</v>
+        <v>-1.657996075320162</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2774498753428301</v>
+        <v>-0.2762882492313102</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2962237570352855</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8251062183125849</v>
+        <v>-0.817014186009978</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.691537635785519</v>
+        <v>-1.702495169898454</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3100242010581478</v>
+        <v>-0.3071012475498924</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2671188841855064</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.910958730255249</v>
+        <v>-0.8995077411477864</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.73054182961135</v>
+        <v>-1.741508807839012</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.326452238627163</v>
+        <v>-0.324640542618546</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2355762777816512</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9629147404207027</v>
+        <v>-0.9517069372674811</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.757185251277607</v>
+        <v>-1.769203674278298</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3514508103116606</v>
+        <v>-0.3492251472741414</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.2029225838313075</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.017768519788471</v>
+        <v>-1.002450952709533</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.788366570070573</v>
+        <v>-1.801046868111772</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3792322478026177</v>
+        <v>-0.376082635540895</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1694939801937983</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.045979664499543</v>
+        <v>-1.029020395477089</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.81653521626537</v>
+        <v>-1.832173883245053</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3965433100986827</v>
+        <v>-0.3937777585025574</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1359491601307312</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.043338460414001</v>
+        <v>-1.026434282060792</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.851924675179135</v>
+        <v>-1.86647726896512</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4255446124086479</v>
+        <v>-0.421101156429216</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1020041082653068</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.038990232591408</v>
+        <v>-1.024869707054219</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.87607327653813</v>
+        <v>-1.891101224098748</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4355506519627563</v>
+        <v>-0.4309513680903158</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.0672626911012722</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.049588103335125</v>
+        <v>-1.033004237873101</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.921376694887406</v>
+        <v>-1.935827764440068</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.439857168278635</v>
+        <v>-0.43547037698757</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.03219154855449618</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.016228342078278</v>
+        <v>-0.9986071980153171</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.934585863353361</v>
+        <v>-1.951403470654899</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4518748042697658</v>
+        <v>-0.4476060644127983</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.003050126545182972</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9588907605370974</v>
+        <v>-0.9425319798094194</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.976928551735471</v>
+        <v>-1.992531803284925</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4562647435990734</v>
+        <v>-0.4508013232290387</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03770499009222848</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.9017349782044269</v>
+        <v>-0.8848685763101294</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.99947165359074</v>
+        <v>-2.015906774245801</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.462088614347886</v>
+        <v>-0.4568990733049575</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0720213155135473</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.8092149212639331</v>
+        <v>-0.7931504821119383</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.039572151734557</v>
+        <v>-2.053584069952375</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4514592632217424</v>
+        <v>-0.4469984930319763</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.105933243763444</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7209486509987545</v>
+        <v>-0.7030252952645035</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.039705156350307</v>
+        <v>-2.052008476811953</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4338979318853906</v>
+        <v>-0.4303894432640114</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1393565584996548</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6075279811560695</v>
+        <v>-0.5901445139804247</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.051056195243566</v>
+        <v>-2.061428194243377</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4258310838887246</v>
+        <v>-0.4223383354585584</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1722443463022455</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4492540624328001</v>
+        <v>-0.4321129942018356</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.038120906104717</v>
+        <v>-2.047373777509284</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3995559826968522</v>
+        <v>-0.3963906302439165</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2039034874030792</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3132887167157254</v>
+        <v>-0.2950080586409392</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.005126317284012</v>
+        <v>-2.014351643353955</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3813146751000985</v>
+        <v>-0.3777935943257489</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2343910997859274</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1090329774018991</v>
+        <v>-0.09180376410014174</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.966684048284486</v>
+        <v>-1.977219745272912</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3575029138330618</v>
+        <v>-0.3532231558422452</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2627403839872257</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06717531518947033</v>
+        <v>0.08318151563397702</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.922304579159413</v>
+        <v>-1.933157441000781</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3448430780404403</v>
+        <v>-0.3384242280637761</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2885473002338249</v>
       </c>
       <c r="E83" t="n">
-        <v>0.268538007358346</v>
+        <v>0.285974991184115</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.868427478656411</v>
+        <v>-1.878126584481866</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3009562769003346</v>
+        <v>-0.2959115456165659</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3109734087082097</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4917921574662717</v>
+        <v>0.505708060517691</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.792705353778439</v>
+        <v>-1.800835949549517</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.275376892160077</v>
+        <v>-0.2689454500304425</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3296009926950345</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6806162133148661</v>
+        <v>0.6928636560977067</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.677903482156812</v>
+        <v>-1.685746032428693</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2548154803785262</v>
+        <v>-0.2469973274030257</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3447110794378867</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8902566720426621</v>
+        <v>0.9038278649065166</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.594369500379824</v>
+        <v>-1.600198093186001</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2207033379816977</v>
+        <v>-0.2129686080196261</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3567051849899909</v>
       </c>
       <c r="E87" t="n">
-        <v>1.108489701153639</v>
+        <v>1.120028835331894</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.483149309268718</v>
+        <v>-1.486260358061968</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1768307030136836</v>
+        <v>-0.1707219348039156</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3664265553928209</v>
       </c>
       <c r="E88" t="n">
-        <v>1.286352287841495</v>
+        <v>1.295502060993616</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.322303443301243</v>
+        <v>-1.327001890378325</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1535242018845843</v>
+        <v>-0.1464206535901543</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3754661799743555</v>
       </c>
       <c r="E89" t="n">
-        <v>1.423831839953261</v>
+        <v>1.431741286037797</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.139676300733209</v>
+        <v>-1.144696634720598</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1256860997052603</v>
+        <v>-0.1186376420800759</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3849192047376824</v>
       </c>
       <c r="E90" t="n">
-        <v>1.541373291855511</v>
+        <v>1.548623223928222</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9562479824324336</v>
+        <v>-0.960683568316259</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09718218743762619</v>
+        <v>-0.09117887850898537</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3958415744146743</v>
       </c>
       <c r="E91" t="n">
-        <v>1.610872532137422</v>
+        <v>1.620036471461634</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7650274824716589</v>
+        <v>-0.7683706990853015</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1016146252832089</v>
+        <v>-0.09528864243470146</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4085669584908196</v>
       </c>
       <c r="E92" t="n">
-        <v>1.684286357974007</v>
+        <v>1.690012639537299</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.569861703583344</v>
+        <v>-0.570651861182237</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09384526690046874</v>
+        <v>-0.08796315744416806</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.4231234244066791</v>
       </c>
       <c r="E93" t="n">
-        <v>1.699971458517768</v>
+        <v>1.703711327949979</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003508623531091</v>
+        <v>-0.4003225300089256</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09442293191798608</v>
+        <v>-0.08969772651584142</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4392934473241669</v>
       </c>
       <c r="E94" t="n">
-        <v>1.688630650748797</v>
+        <v>1.691807021335582</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2168753234786944</v>
+        <v>-0.2164141358761533</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.10731572254056</v>
+        <v>-0.1044242494147306</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.4575265654007132</v>
       </c>
       <c r="E95" t="n">
-        <v>1.658217453287025</v>
+        <v>1.660806714741565</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07195380896141877</v>
+        <v>-0.07264637737479107</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1146412075310934</v>
+        <v>-0.1112224379996283</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.4760871740331971</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606923318162078</v>
+        <v>1.606691937351247</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02551575110600502</v>
+        <v>0.02770048964637038</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1214740245366597</v>
+        <v>-0.1197441775223503</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4909058490942189</v>
       </c>
       <c r="E97" t="n">
-        <v>1.523525489039083</v>
+        <v>1.520434115484848</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08752266037052432</v>
+        <v>0.08997498216151079</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1400946707416468</v>
+        <v>-0.1392934950089048</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4956054218019138</v>
       </c>
       <c r="E98" t="n">
-        <v>1.383061596673331</v>
+        <v>1.382273013093559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1381037648335219</v>
+        <v>0.1399296270142307</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1490256552359069</v>
+        <v>-0.1481017060117034</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4875731564400598</v>
       </c>
       <c r="E99" t="n">
-        <v>1.255556603733247</v>
+        <v>1.254705059388623</v>
       </c>
       <c r="F99" t="n">
-        <v>0.144448635911485</v>
+        <v>0.1477367618558821</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1625496275261225</v>
+        <v>-0.1620254791587293</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.464795175719566</v>
       </c>
       <c r="E100" t="n">
-        <v>1.125199488145367</v>
+        <v>1.124931904894745</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1577790038497805</v>
+        <v>0.1623499553780377</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1696752120882507</v>
+        <v>-0.1691620818547066</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4339519039317583</v>
       </c>
       <c r="E101" t="n">
-        <v>1.018633671575946</v>
+        <v>1.017001413747157</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1714525079565196</v>
+        <v>0.1754552385819872</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1938789041164913</v>
+        <v>-0.1932398523532433</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3929464773452943</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9002768777688622</v>
+        <v>0.8992931158180494</v>
       </c>
       <c r="F102" t="n">
-        <v>0.160215585449554</v>
+        <v>0.1663605560991119</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1906096664015498</v>
+        <v>-0.1915698180655432</v>
       </c>
     </row>
   </sheetData>
